--- a/biology/Zoologie/Amarsipus_carlsbergi/Amarsipus_carlsbergi.xlsx
+++ b/biology/Zoologie/Amarsipus_carlsbergi/Amarsipus_carlsbergi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amarsipus carlsbergi est une espèce de poisson de l'ordre des Perciformes. Il est l'unique représentant de la famille des Amarsipidae. Il est présent dans l'Océan Indien et l'Océan Pacifique, de 30 à 130 mètres de profondeur.
 </t>
